--- a/vision_cv/RGB.xlsx
+++ b/vision_cv/RGB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasnara/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasnara/Documents/Coding/FRC/2019-Vision/vision_cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,99 +340,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A11:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>47</v>
       </c>
-      <c r="B1">
+      <c r="B12">
         <v>105</v>
       </c>
-      <c r="C1">
+      <c r="C12">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>64</v>
       </c>
-      <c r="B2">
+      <c r="B13">
         <v>101</v>
       </c>
-      <c r="C2">
+      <c r="C13">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>53</v>
       </c>
-      <c r="B3">
+      <c r="B14">
         <v>96</v>
       </c>
-      <c r="C3">
+      <c r="C14">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>73</v>
       </c>
-      <c r="B4">
+      <c r="B15">
         <v>120</v>
       </c>
-      <c r="C4">
+      <c r="C15">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>86</v>
       </c>
-      <c r="B5">
+      <c r="B16">
         <v>144</v>
       </c>
-      <c r="C5">
+      <c r="C16">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>101</v>
       </c>
-      <c r="B6">
+      <c r="B17">
         <v>155</v>
       </c>
-      <c r="C6">
+      <c r="C17">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>109</v>
       </c>
-      <c r="B7">
+      <c r="B18">
         <v>169</v>
       </c>
-      <c r="C7">
+      <c r="C18">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>112</v>
       </c>
-      <c r="B8">
+      <c r="B19">
         <v>172</v>
       </c>
-      <c r="C8">
+      <c r="C19">
         <v>48</v>
       </c>
     </row>
